--- a/data/output/FV2504_FV2410/REQOTE/35004.xlsx
+++ b/data/output/FV2504_FV2410/REQOTE/35004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="330">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="330">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1161,6 +1161,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U173" totalsRowShown="0">
+  <autoFilter ref="A1:U173"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1450,7 +1480,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9312,5 +9345,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/REQOTE/35004.xlsx
+++ b/data/output/FV2504_FV2410/REQOTE/35004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="499">
   <si>
     <t>#</t>
   </si>
@@ -9689,44 +9689,42 @@
       <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5" t="s">
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M158" s="5" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5" t="s">
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V158" s="5"/>
+      <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9920,9 +9918,7 @@
         <v>229</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>48</v>
       </c>
@@ -9949,46 +9945,44 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K163" s="5" t="s">
+      <c r="K163" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="L163" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="V163" s="5" t="s">
+      <c r="V163" s="2" t="s">
         <v>305</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/REQOTE/35004.xlsx
+++ b/data/output/FV2504_FV2410/REQOTE/35004.xlsx
@@ -1652,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1678,7 +1678,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,7 +2131,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2489,7 +2495,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2689,7 +2695,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2895,7 +2901,7 @@
         <v>282</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -3097,7 +3103,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3241,7 +3247,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3443,7 +3449,7 @@
         <v>283</v>
       </c>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3647,7 +3653,7 @@
         <v>285</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3851,7 +3857,7 @@
         <v>285</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -4055,7 +4061,7 @@
         <v>288</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4363,7 +4369,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4671,7 +4677,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4863,7 +4869,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5237,7 +5243,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5541,7 +5547,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5679,7 +5685,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5831,7 +5837,7 @@
         <v>291</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6255,7 +6261,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6453,7 +6459,7 @@
         <v>294</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6877,7 +6883,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7077,7 +7083,7 @@
         <v>296</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7500,19 +7506,19 @@
       <c r="M107" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N107" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9" t="s">
+      <c r="N107" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="V107" s="9" t="s">
+      <c r="V107" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7533,26 +7539,26 @@
       <c r="L108" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N108" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O108" s="9" t="s">
+      <c r="N108" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O108" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9" t="s">
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9" t="s">
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V108" s="9"/>
+      <c r="V108" s="10"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7571,30 +7577,30 @@
       <c r="L109" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="M109" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O109" s="9" t="s">
+      <c r="N109" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O109" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="P109" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q109" s="9" t="s">
+      <c r="Q109" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9" t="s">
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="U109" s="9" t="s">
+      <c r="U109" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="V109" s="9" t="s">
+      <c r="V109" s="10" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7615,30 +7621,30 @@
       <c r="L110" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="M110" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N110" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O110" s="9" t="s">
+      <c r="N110" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O110" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P110" s="9" t="s">
+      <c r="P110" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q110" s="9" t="s">
+      <c r="Q110" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R110" s="9" t="s">
+      <c r="R110" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="9" t="s">
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="V110" s="9"/>
+      <c r="V110" s="10"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7657,26 +7663,26 @@
       <c r="L111" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M111" s="9" t="s">
+      <c r="M111" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N111" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O111" s="9" t="s">
+      <c r="N111" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O111" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9" t="s">
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9" t="s">
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V111" s="9"/>
+      <c r="V111" s="10"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7695,28 +7701,28 @@
       <c r="L112" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M112" s="9" t="s">
+      <c r="M112" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N112" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O112" s="9" t="s">
+      <c r="N112" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O112" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P112" s="9" t="s">
+      <c r="P112" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q112" s="9" t="s">
+      <c r="Q112" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R112" s="9"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9" t="s">
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="V112" s="9"/>
+      <c r="V112" s="10"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7735,30 +7741,30 @@
       <c r="L113" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M113" s="9" t="s">
+      <c r="M113" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N113" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O113" s="9" t="s">
+      <c r="N113" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O113" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P113" s="9" t="s">
+      <c r="P113" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q113" s="9" t="s">
+      <c r="Q113" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R113" s="9"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9" t="s">
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="U113" s="9" t="s">
+      <c r="U113" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="V113" s="9" t="s">
+      <c r="V113" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7779,32 +7785,32 @@
       <c r="L114" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M114" s="9" t="s">
+      <c r="M114" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N114" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O114" s="9" t="s">
+      <c r="N114" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O114" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P114" s="9" t="s">
+      <c r="P114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q114" s="9" t="s">
+      <c r="Q114" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R114" s="9" t="s">
+      <c r="R114" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9" t="s">
+      <c r="S114" s="10"/>
+      <c r="T114" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="U114" s="9" t="s">
+      <c r="U114" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="V114" s="9"/>
+      <c r="V114" s="10"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7826,19 +7832,19 @@
       <c r="M115" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N115" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="9"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9" t="s">
+      <c r="N115" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="V115" s="9" t="s">
+      <c r="V115" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7859,26 +7865,26 @@
       <c r="L116" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M116" s="9" t="s">
+      <c r="M116" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N116" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O116" s="9" t="s">
+      <c r="N116" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O116" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9" t="s">
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R116" s="9"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9" t="s">
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V116" s="9"/>
+      <c r="V116" s="10"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -7897,30 +7903,30 @@
       <c r="L117" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M117" s="9" t="s">
+      <c r="M117" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N117" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O117" s="9" t="s">
+      <c r="N117" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O117" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P117" s="9" t="s">
+      <c r="P117" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q117" s="9" t="s">
+      <c r="Q117" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9" t="s">
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="U117" s="9" t="s">
+      <c r="U117" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="V117" s="9" t="s">
+      <c r="V117" s="10" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7941,30 +7947,30 @@
       <c r="L118" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M118" s="9" t="s">
+      <c r="M118" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N118" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O118" s="9" t="s">
+      <c r="N118" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O118" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P118" s="9" t="s">
+      <c r="P118" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q118" s="9" t="s">
+      <c r="Q118" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R118" s="9" t="s">
+      <c r="R118" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9" t="s">
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="V118" s="9"/>
+      <c r="V118" s="10"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -7983,26 +7989,26 @@
       <c r="L119" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M119" s="9" t="s">
+      <c r="M119" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N119" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O119" s="9" t="s">
+      <c r="N119" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O119" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9" t="s">
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9" t="s">
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V119" s="9"/>
+      <c r="V119" s="10"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8021,28 +8027,28 @@
       <c r="L120" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M120" s="9" t="s">
+      <c r="M120" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N120" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O120" s="9" t="s">
+      <c r="N120" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O120" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P120" s="9" t="s">
+      <c r="P120" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q120" s="9" t="s">
+      <c r="Q120" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9" t="s">
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="V120" s="9"/>
+      <c r="V120" s="10"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8061,30 +8067,30 @@
       <c r="L121" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M121" s="9" t="s">
+      <c r="M121" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N121" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O121" s="9" t="s">
+      <c r="N121" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O121" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P121" s="9" t="s">
+      <c r="P121" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q121" s="9" t="s">
+      <c r="Q121" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9" t="s">
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="U121" s="9" t="s">
+      <c r="U121" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="V121" s="9" t="s">
+      <c r="V121" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8105,53 +8111,53 @@
       <c r="L122" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M122" s="9" t="s">
+      <c r="M122" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N122" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O122" s="9" t="s">
+      <c r="N122" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O122" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P122" s="9" t="s">
+      <c r="P122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q122" s="9" t="s">
+      <c r="Q122" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R122" s="9" t="s">
+      <c r="R122" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9" t="s">
+      <c r="S122" s="10"/>
+      <c r="T122" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="U122" s="9" t="s">
+      <c r="U122" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="V122" s="9"/>
+      <c r="V122" s="10"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
       <c r="J123" s="6" t="s">
         <v>262</v>
       </c>
@@ -8161,22 +8167,22 @@
       <c r="L123" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P123" s="5"/>
+      <c r="P123" s="2"/>
       <c r="Q123" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
       <c r="U123" s="6" t="s">
         <v>273</v>
       </c>
@@ -8311,53 +8317,53 @@
       <c r="L126" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M126" s="9" t="s">
+      <c r="M126" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N126" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O126" s="9" t="s">
+      <c r="N126" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O126" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P126" s="9" t="s">
+      <c r="P126" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="Q126" s="9" t="s">
+      <c r="Q126" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9" t="s">
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="U126" s="9" t="s">
+      <c r="U126" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="V126" s="9" t="s">
+      <c r="V126" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="5" t="s">
+      <c r="C127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
       <c r="J127" s="6" t="s">
         <v>262</v>
       </c>
@@ -8367,22 +8373,22 @@
       <c r="L127" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N127" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O127" s="5" t="s">
+      <c r="N127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O127" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P127" s="5"/>
+      <c r="P127" s="2"/>
       <c r="Q127" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
       <c r="U127" s="6" t="s">
         <v>273</v>
       </c>
@@ -8503,25 +8509,25 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="C130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
       <c r="J130" s="6" t="s">
         <v>262</v>
       </c>
@@ -8531,22 +8537,22 @@
       <c r="L130" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N130" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O130" s="5" t="s">
+      <c r="N130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P130" s="5"/>
+      <c r="P130" s="2"/>
       <c r="Q130" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
       <c r="U130" s="6" t="s">
         <v>273</v>
       </c>
@@ -8670,25 +8676,25 @@
       <c r="A133" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10" t="s">
+      <c r="C133" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="K133" s="10" t="s">
+      <c r="K133" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="L133" s="11" t="s">
+      <c r="L133" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M133" s="5"/>
@@ -8706,27 +8712,27 @@
       <c r="A134" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D134" s="10" t="s">
+      <c r="C134" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10" t="s">
+      <c r="E134" s="12"/>
+      <c r="F134" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10" t="s">
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="11" t="s">
+      <c r="K134" s="12"/>
+      <c r="L134" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M134" s="5"/>
@@ -8744,33 +8750,33 @@
       <c r="A135" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="C135" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10" t="s">
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J135" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K135" s="10" t="s">
+      <c r="K135" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M135" s="5"/>
@@ -8788,31 +8794,31 @@
       <c r="A136" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="C136" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10" t="s">
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="K136" s="10"/>
-      <c r="L136" s="11" t="s">
+      <c r="K136" s="12"/>
+      <c r="L136" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M136" s="5"/>
@@ -8830,27 +8836,27 @@
       <c r="A137" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="C137" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10" t="s">
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K137" s="10"/>
-      <c r="L137" s="11" t="s">
+      <c r="K137" s="12"/>
+      <c r="L137" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M137" s="5"/>
@@ -8868,29 +8874,29 @@
       <c r="A138" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="C138" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10" t="s">
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K138" s="10"/>
-      <c r="L138" s="11" t="s">
+      <c r="K138" s="12"/>
+      <c r="L138" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M138" s="5"/>
@@ -8908,33 +8914,33 @@
       <c r="A139" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="C139" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E139" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10" t="s">
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J139" s="10" t="s">
+      <c r="J139" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="K139" s="10" t="s">
+      <c r="K139" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="L139" s="11" t="s">
+      <c r="L139" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M139" s="5"/>
@@ -8952,33 +8958,33 @@
       <c r="A140" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="C140" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10" t="s">
+      <c r="H140" s="12"/>
+      <c r="I140" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="J140" s="10" t="s">
+      <c r="J140" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="K140" s="10"/>
-      <c r="L140" s="11" t="s">
+      <c r="K140" s="12"/>
+      <c r="L140" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M140" s="5"/>
@@ -8996,25 +9002,25 @@
       <c r="A141" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10" t="s">
+      <c r="C141" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="K141" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L141" s="11" t="s">
+      <c r="L141" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M141" s="5"/>
@@ -9032,27 +9038,27 @@
       <c r="A142" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="C142" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10" t="s">
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K142" s="10"/>
-      <c r="L142" s="11" t="s">
+      <c r="K142" s="12"/>
+      <c r="L142" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M142" s="5"/>
@@ -9070,33 +9076,33 @@
       <c r="A143" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F143" s="10" t="s">
+      <c r="F143" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10" t="s">
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J143" s="10" t="s">
+      <c r="J143" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K143" s="10" t="s">
+      <c r="K143" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="L143" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M143" s="5"/>
@@ -9114,31 +9120,31 @@
       <c r="A144" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D144" s="10" t="s">
+      <c r="C144" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G144" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10" t="s">
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="K144" s="10"/>
-      <c r="L144" s="11" t="s">
+      <c r="K144" s="12"/>
+      <c r="L144" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M144" s="5"/>
@@ -9156,27 +9162,27 @@
       <c r="A145" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D145" s="10" t="s">
+      <c r="C145" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10" t="s">
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K145" s="10"/>
-      <c r="L145" s="11" t="s">
+      <c r="K145" s="12"/>
+      <c r="L145" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M145" s="5"/>
@@ -9194,29 +9200,29 @@
       <c r="A146" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D146" s="10" t="s">
+      <c r="C146" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="F146" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10" t="s">
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K146" s="10"/>
-      <c r="L146" s="11" t="s">
+      <c r="K146" s="12"/>
+      <c r="L146" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M146" s="5"/>
@@ -9234,33 +9240,33 @@
       <c r="A147" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D147" s="10" t="s">
+      <c r="C147" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F147" s="10" t="s">
+      <c r="F147" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10" t="s">
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J147" s="10" t="s">
+      <c r="J147" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="K147" s="10" t="s">
+      <c r="K147" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="L147" s="11" t="s">
+      <c r="L147" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M147" s="5"/>
@@ -9278,33 +9284,33 @@
       <c r="A148" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="10" t="s">
+      <c r="C148" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F148" s="10" t="s">
+      <c r="F148" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="G148" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10" t="s">
+      <c r="H148" s="12"/>
+      <c r="I148" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J148" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="K148" s="10"/>
-      <c r="L148" s="11" t="s">
+      <c r="K148" s="12"/>
+      <c r="L148" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M148" s="5"/>
@@ -9322,29 +9328,29 @@
       <c r="A149" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D149" s="10" t="s">
+      <c r="C149" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
+      <c r="E149" s="12"/>
+      <c r="F149" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10" t="s">
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="K149" s="10" t="s">
+      <c r="K149" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="L149" s="11" t="s">
+      <c r="L149" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M149" s="5"/>
@@ -9362,29 +9368,29 @@
       <c r="A150" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D150" s="10" t="s">
+      <c r="C150" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="F150" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10" t="s">
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="K150" s="10"/>
-      <c r="L150" s="11" t="s">
+      <c r="K150" s="12"/>
+      <c r="L150" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M150" s="5"/>
@@ -9402,31 +9408,31 @@
       <c r="A151" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D151" s="10" t="s">
+      <c r="C151" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F151" s="10" t="s">
+      <c r="F151" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10" t="s">
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="J151" s="10" t="s">
+      <c r="J151" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="K151" s="10"/>
-      <c r="L151" s="11" t="s">
+      <c r="K151" s="12"/>
+      <c r="L151" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M151" s="5"/>
@@ -9444,29 +9450,29 @@
       <c r="A152" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="C152" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="s">
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10" t="s">
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="K152" s="10" t="s">
+      <c r="K152" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="L152" s="11" t="s">
+      <c r="L152" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M152" s="5"/>
@@ -9484,29 +9490,29 @@
       <c r="A153" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="C153" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="F153" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10" t="s">
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="K153" s="10"/>
-      <c r="L153" s="11" t="s">
+      <c r="K153" s="12"/>
+      <c r="L153" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M153" s="5"/>
@@ -9524,33 +9530,33 @@
       <c r="A154" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D154" s="10" t="s">
+      <c r="C154" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F154" s="10" t="s">
+      <c r="F154" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10" t="s">
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="K154" s="10" t="s">
+      <c r="K154" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="L154" s="11" t="s">
+      <c r="L154" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M154" s="5"/>
@@ -9568,29 +9574,29 @@
       <c r="A155" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D155" s="10" t="s">
+      <c r="C155" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10" t="s">
+      <c r="E155" s="12"/>
+      <c r="F155" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10" t="s">
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="K155" s="10" t="s">
+      <c r="K155" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="L155" s="11" t="s">
+      <c r="L155" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M155" s="5"/>
@@ -9608,29 +9614,29 @@
       <c r="A156" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D156" s="10" t="s">
+      <c r="C156" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F156" s="10" t="s">
+      <c r="F156" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10" t="s">
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="K156" s="10"/>
-      <c r="L156" s="11" t="s">
+      <c r="K156" s="12"/>
+      <c r="L156" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M156" s="5"/>
@@ -9648,33 +9654,33 @@
       <c r="A157" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D157" s="10" t="s">
+      <c r="C157" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10" t="s">
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="J157" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="K157" s="10" t="s">
+      <c r="K157" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="L157" s="11" t="s">
+      <c r="L157" s="13" t="s">
         <v>310</v>
       </c>
       <c r="M157" s="5"/>
@@ -9709,7 +9715,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9967,7 +9973,7 @@
         <v>305</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10267,48 +10273,48 @@
       </c>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5" t="s">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="K169" s="2"/>
       <c r="L169" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N169" s="5"/>
-      <c r="O169" s="5" t="s">
+      <c r="N169" s="2"/>
+      <c r="O169" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P169" s="5"/>
+      <c r="P169" s="2"/>
       <c r="Q169" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V169" s="5"/>
+      <c r="V169" s="2"/>
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="5" t="s">
@@ -10363,48 +10369,48 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5" t="s">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K171" s="5"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M171" s="5" t="s">
+      <c r="M171" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5" t="s">
+      <c r="N171" s="2"/>
+      <c r="O171" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P171" s="5"/>
+      <c r="P171" s="2"/>
       <c r="Q171" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
